--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H2">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.688429245304781</v>
+        <v>0.8686950000000001</v>
       </c>
       <c r="N2">
-        <v>0.688429245304781</v>
+        <v>2.606085</v>
       </c>
       <c r="O2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="P2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="Q2">
-        <v>0.671492090391665</v>
+        <v>0.8953494582500001</v>
       </c>
       <c r="R2">
-        <v>0.671492090391665</v>
+        <v>8.05814512425</v>
       </c>
       <c r="S2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="T2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H3">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.25282359698353</v>
+        <v>4.478549</v>
       </c>
       <c r="N3">
-        <v>4.25282359698353</v>
+        <v>13.435647</v>
       </c>
       <c r="O3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="P3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="Q3">
-        <v>4.148193044793122</v>
+        <v>4.615965811816667</v>
       </c>
       <c r="R3">
-        <v>4.148193044793122</v>
+        <v>41.54369230635</v>
       </c>
       <c r="S3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="T3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9753973919198951</v>
+        <v>1.030683333333333</v>
       </c>
       <c r="H4">
-        <v>0.9753973919198951</v>
+        <v>3.09205</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.24338151714933</v>
+        <v>4.390839</v>
       </c>
       <c r="N4">
-        <v>4.24338151714933</v>
+        <v>13.172517</v>
       </c>
       <c r="O4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="P4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="Q4">
-        <v>4.138983264748544</v>
+        <v>4.52556457665</v>
       </c>
       <c r="R4">
-        <v>4.138983264748544</v>
+        <v>40.73008118985</v>
       </c>
       <c r="S4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="T4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
     </row>
   </sheetData>
